--- a/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>JSHG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,63 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +749,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -824,8 +851,8 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -842,8 +869,14 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,28 +919,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,8 +990,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -948,28 +1001,34 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1036,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-1900</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1039,8 +1106,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1068,8 +1141,14 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,8 +1176,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1106,28 +1191,34 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-1900</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1281,14 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1193,28 +1296,34 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-1900</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1222,28 +1331,34 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-1900</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1387,8 +1526,14 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1396,28 +1541,34 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-1900</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1596,14 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1454,62 +1611,74 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-1900</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,8 +1705,10 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1557,14 +1730,20 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1615,14 +1800,20 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1841,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,16 +1876,22 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -1700,16 +1903,22 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1946,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1760,14 +1975,20 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,16 +2156,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -1932,16 +2183,22 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1989,43 +2250,55 @@
       <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2033,7 +2306,7 @@
         <v>800</v>
       </c>
       <c r="E59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F59" s="3">
         <v>700</v>
@@ -2042,48 +2315,60 @@
         <v>700</v>
       </c>
       <c r="H59" s="3">
+        <v>700</v>
+      </c>
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3">
+        <v>500</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2111,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-12100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-12000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-11800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-11700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +2936,54 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2602,28 +2991,34 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-1900</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,13 +3236,19 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -2824,22 +3257,28 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,19 +3391,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -2958,17 +3417,23 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3581,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3111,22 +3602,28 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3145,17 +3642,23 @@
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3174,13 +3677,19 @@
       <c r="H102" s="3">
         <v>0</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>JSHG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,26 +871,29 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,20 +927,23 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -936,8 +956,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,28 +1018,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1022,13 +1049,16 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,19 +1066,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1057,13 +1087,16 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1146,11 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1184,11 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,28 +1222,31 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1212,13 +1255,16 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,28 +1336,31 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1317,33 +1369,36 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1352,13 +1407,16 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1532,28 +1602,31 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -1562,13 +1635,16 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,28 +1678,31 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -1632,53 +1711,59 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,8 +1793,9 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1736,14 +1823,17 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1806,14 +1899,17 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,8 +1943,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,19 +1981,22 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -1909,16 +2011,19 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1981,14 +2089,17 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,19 +2285,22 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2189,16 +2315,19 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2256,14 +2387,17 @@
       <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>300</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2289,7 +2423,7 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2297,19 +2431,22 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
       </c>
       <c r="F59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
@@ -2318,57 +2455,63 @@
         <v>700</v>
       </c>
       <c r="I59" s="3">
+        <v>700</v>
+      </c>
+      <c r="J59" s="3">
         <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="L59" s="3">
+        <v>500</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E60" s="3">
         <v>1200</v>
       </c>
       <c r="F60" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G60" s="3">
         <v>1100</v>
       </c>
       <c r="H60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I60" s="3">
         <v>1000</v>
       </c>
       <c r="J60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
+      <c r="L60" s="3">
+        <v>900</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E66" s="3">
         <v>1200</v>
       </c>
       <c r="F66" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G66" s="3">
         <v>1100</v>
       </c>
       <c r="H66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I66" s="3">
         <v>1000</v>
       </c>
       <c r="J66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
+      <c r="L66" s="3">
+        <v>900</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-11900</v>
       </c>
       <c r="I72" s="3">
         <v>-11900</v>
       </c>
       <c r="J72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-11800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,8 +3055,11 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2881,34 +3067,37 @@
         <v>-1200</v>
       </c>
       <c r="E76" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="F76" s="3">
         <v>-1100</v>
       </c>
       <c r="G76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-900</v>
       </c>
       <c r="I76" s="3">
         <v>-900</v>
       </c>
       <c r="J76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
+      <c r="L76" s="3">
+        <v>-800</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,68 +3131,74 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -3012,13 +3207,16 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,16 +3456,19 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3263,22 +3480,25 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3423,17 +3653,20 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3608,22 +3854,25 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3648,17 +3897,20 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3683,13 +3935,16 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>JSHG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,71 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +766,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,13 +867,14 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -874,26 +888,29 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,14 +959,14 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -959,8 +979,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,8 +988,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,31 +1045,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1052,13 +1079,16 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,22 +1096,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1090,13 +1120,16 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1144,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1183,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1224,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,31 +1265,34 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1258,13 +1301,16 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1347,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,31 +1388,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1372,36 +1424,39 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1410,13 +1465,16 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1634,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,31 +1675,34 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -1638,13 +1711,16 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,31 +1757,34 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -1714,56 +1793,62 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,8 +1880,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1826,14 +1913,17 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,13 +1960,16 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1902,14 +1995,17 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,22 +2083,25 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2014,16 +2116,19 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2092,14 +2200,17 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2329,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,22 +2411,25 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -2318,16 +2444,19 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,13 +2488,14 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -2390,14 +2521,17 @@
       <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>300</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2426,7 +2560,7 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2434,8 +2568,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2443,13 +2580,13 @@
         <v>900</v>
       </c>
       <c r="E59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F59" s="3">
         <v>800</v>
       </c>
       <c r="G59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
@@ -2458,60 +2595,66 @@
         <v>700</v>
       </c>
       <c r="J59" s="3">
+        <v>700</v>
+      </c>
+      <c r="K59" s="3">
         <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>500</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1200</v>
       </c>
       <c r="F60" s="3">
         <v>1200</v>
       </c>
       <c r="G60" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H60" s="3">
         <v>1100</v>
       </c>
       <c r="I60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J60" s="3">
         <v>1000</v>
       </c>
       <c r="K60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+      <c r="M60" s="3">
+        <v>900</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1200</v>
       </c>
       <c r="F66" s="3">
         <v>1200</v>
       </c>
       <c r="G66" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H66" s="3">
         <v>1100</v>
       </c>
       <c r="I66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J66" s="3">
         <v>1000</v>
       </c>
       <c r="K66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+      <c r="M66" s="3">
+        <v>900</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-11900</v>
       </c>
       <c r="J72" s="3">
         <v>-11900</v>
       </c>
       <c r="K72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="L72" s="3">
         <v>-11800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="E76" s="3">
         <v>-1200</v>
       </c>
       <c r="F76" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="G76" s="3">
         <v>-1100</v>
       </c>
       <c r="H76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-900</v>
       </c>
       <c r="J76" s="3">
         <v>-900</v>
       </c>
       <c r="K76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
+      <c r="M76" s="3">
+        <v>-800</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,74 +3323,80 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -3210,13 +3405,16 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3468,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3673,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3471,7 +3688,7 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -3483,22 +3700,25 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3772,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3854,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3656,17 +3886,20 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,8 +4076,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3842,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3857,22 +4103,25 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3900,17 +4149,20 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3938,13 +4190,16 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>JSHG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,78 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,8 +776,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,20 +893,22 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
@@ -891,8 +918,8 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -909,8 +936,14 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,29 +983,35 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>200</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -982,17 +1021,23 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,49 +1097,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1900</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1096,40 +1155,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,8 +1253,14 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,8 +1300,14 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1268,49 +1347,61 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1350,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1678,49 +1817,61 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +2052,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1916,14 +2089,20 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,20 +2142,26 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
@@ -1998,14 +2183,20 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,31 +2236,37 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2086,13 +2283,19 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2101,13 +2304,13 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2119,16 +2322,22 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2168,8 +2377,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2203,14 +2418,20 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2250,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,8 +2565,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,13 +2659,19 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2429,13 +2680,13 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -2447,16 +2698,22 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,19 +2748,21 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -2524,14 +2785,20 @@
       <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2563,57 +2830,69 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E59" s="3">
         <v>900</v>
       </c>
       <c r="F59" s="3">
+        <v>900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>900</v>
+      </c>
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>700</v>
       </c>
       <c r="J59" s="3">
         <v>700</v>
       </c>
       <c r="K59" s="3">
+        <v>700</v>
+      </c>
+      <c r="L59" s="3">
+        <v>700</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2624,37 +2903,43 @@
         <v>1300</v>
       </c>
       <c r="F60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2694,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,8 +3167,14 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2870,37 +3185,43 @@
         <v>1300</v>
       </c>
       <c r="F66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H66" s="3">
         <v>1200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-14400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-14100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-14000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-12100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-12000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-11700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,8 +4103,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3685,16 +4118,16 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -3703,22 +4136,28 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3775,8 +4216,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3889,17 +4348,23 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,8 +4564,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4088,14 +4579,14 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4106,22 +4597,28 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4152,17 +4649,23 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4193,13 +4696,19 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>JSHG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,23 +908,24 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
@@ -924,26 +938,29 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,32 +1006,35 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1027,8 +1047,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,40 +1125,41 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1141,13 +1168,16 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,31 +1185,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1188,13 +1218,16 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,40 +1393,43 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1395,13 +1438,16 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,40 +1543,43 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1900</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1536,45 +1588,48 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
       </c>
       <c r="G27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1583,13 +1638,16 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,40 +1893,43 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
       </c>
       <c r="G33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1900</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -1865,13 +1938,16 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,40 +1993,43 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
       </c>
       <c r="G35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1900</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -1959,65 +2038,71 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2095,14 +2182,17 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2160,11 +2253,11 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2189,14 +2282,17 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,17 +2338,20 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2268,8 +2367,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2289,31 +2388,34 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2328,16 +2430,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2424,14 +2532,17 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,31 +2788,34 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>600</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -2704,16 +2830,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2762,10 +2893,10 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -2791,14 +2922,17 @@
       <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="P57" s="3">
+        <v>300</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2836,7 +2970,7 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2853,7 +2990,7 @@
         <v>1000</v>
       </c>
       <c r="E59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F59" s="3">
         <v>900</v>
@@ -2862,13 +2999,13 @@
         <v>900</v>
       </c>
       <c r="H59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I59" s="3">
         <v>800</v>
       </c>
       <c r="J59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
@@ -2877,22 +3014,25 @@
         <v>700</v>
       </c>
       <c r="M59" s="3">
+        <v>700</v>
+      </c>
+      <c r="N59" s="3">
         <v>600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>500</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,46 +3040,49 @@
         <v>1400</v>
       </c>
       <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1200</v>
       </c>
       <c r="I60" s="3">
         <v>1200</v>
       </c>
       <c r="J60" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K60" s="3">
         <v>1100</v>
       </c>
       <c r="L60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M60" s="3">
         <v>1000</v>
       </c>
       <c r="N60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
+      <c r="P60" s="3">
+        <v>900</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3182,46 +3340,49 @@
         <v>1400</v>
       </c>
       <c r="E66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1200</v>
       </c>
       <c r="I66" s="3">
         <v>1200</v>
       </c>
       <c r="J66" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K66" s="3">
         <v>1100</v>
       </c>
       <c r="L66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M66" s="3">
         <v>1000</v>
       </c>
       <c r="N66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
+      <c r="P66" s="3">
+        <v>900</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-11900</v>
       </c>
       <c r="M72" s="3">
         <v>-11900</v>
       </c>
       <c r="N72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="O72" s="3">
         <v>-11800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-800</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-1300</v>
       </c>
       <c r="F76" s="3">
         <v>-1300</v>
       </c>
       <c r="G76" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="H76" s="3">
         <v>-1200</v>
       </c>
       <c r="I76" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="J76" s="3">
         <v>-1100</v>
       </c>
       <c r="K76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-900</v>
       </c>
       <c r="M76" s="3">
         <v>-900</v>
       </c>
       <c r="N76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="O76" s="3">
         <v>-800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
+      <c r="P76" s="3">
+        <v>-800</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,92 +3898,98 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
       </c>
       <c r="G81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1900</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -3803,13 +3998,16 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4124,13 +4341,13 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -4142,22 +4359,25 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4354,17 +4584,20 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4585,11 +4831,11 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4603,22 +4849,25 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4655,17 +4904,20 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4702,13 +4954,16 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>JSHG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,26 +922,27 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
@@ -941,26 +955,29 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,35 +1026,38 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1050,8 +1070,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1135,34 +1162,34 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1171,13 +1198,16 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,34 +1215,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1221,13 +1251,16 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1330,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,8 +1436,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1405,34 +1448,34 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1441,13 +1484,16 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1595,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,34 +1607,34 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1591,13 +1643,16 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1605,34 +1660,34 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1641,13 +1696,16 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,8 +1966,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1905,34 +1978,34 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -1941,13 +2014,16 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2072,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2005,34 +2084,34 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2041,68 +2120,74 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2185,14 +2272,17 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2256,11 +2349,11 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -2285,14 +2378,17 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,20 +2437,23 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2370,8 +2469,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2391,34 +2490,37 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2433,16 +2535,19 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2535,14 +2643,17 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,34 +2914,37 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -2833,16 +2959,19 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2896,10 +3027,10 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -2925,14 +3056,17 @@
       <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>300</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2973,7 +3107,7 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2993,7 +3130,7 @@
         <v>1000</v>
       </c>
       <c r="F59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
@@ -3002,13 +3139,13 @@
         <v>900</v>
       </c>
       <c r="I59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
       </c>
       <c r="K59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
@@ -3017,72 +3154,78 @@
         <v>700</v>
       </c>
       <c r="N59" s="3">
+        <v>700</v>
+      </c>
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>500</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
         <v>1400</v>
       </c>
       <c r="F60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1200</v>
       </c>
       <c r="J60" s="3">
         <v>1200</v>
       </c>
       <c r="K60" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L60" s="3">
         <v>1100</v>
       </c>
       <c r="M60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N60" s="3">
         <v>1000</v>
       </c>
       <c r="O60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
+      <c r="Q60" s="3">
+        <v>900</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E66" s="3">
         <v>1400</v>
       </c>
       <c r="F66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1200</v>
       </c>
       <c r="J66" s="3">
         <v>1200</v>
       </c>
       <c r="K66" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L66" s="3">
         <v>1100</v>
       </c>
       <c r="M66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N66" s="3">
         <v>1000</v>
       </c>
       <c r="O66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
+      <c r="Q66" s="3">
+        <v>900</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-11900</v>
       </c>
       <c r="N72" s="3">
         <v>-11900</v>
       </c>
       <c r="O72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="P72" s="3">
         <v>-11800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1300</v>
       </c>
       <c r="G76" s="3">
         <v>-1300</v>
       </c>
       <c r="H76" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="I76" s="3">
         <v>-1200</v>
       </c>
       <c r="J76" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="K76" s="3">
         <v>-1100</v>
       </c>
       <c r="L76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-900</v>
       </c>
       <c r="N76" s="3">
         <v>-900</v>
       </c>
       <c r="O76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
+      <c r="Q76" s="3">
+        <v>-800</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4090,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3965,34 +4160,34 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -4001,13 +4196,16 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4344,13 +4561,13 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4362,22 +4579,25 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4587,17 +4817,20 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4834,11 +5080,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4852,22 +5098,25 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4907,17 +5156,20 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4957,13 +5209,16 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>JSHG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,29 +935,30 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
@@ -958,26 +971,29 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,38 +1045,41 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1073,8 +1092,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,46 +1178,47 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1201,13 +1227,16 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1218,34 +1247,34 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1254,13 +1283,16 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1333,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,46 +1478,49 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1487,13 +1529,16 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,46 +1646,49 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1646,51 +1697,54 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="G27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1699,13 +1753,16 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1969,46 +2038,49 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="G33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -2017,13 +2089,16 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,46 +2150,49 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="G35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2123,71 +2201,77 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2275,14 +2361,17 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
+      <c r="R41" s="3">
+        <v>0</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2352,11 +2444,11 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -2381,14 +2473,17 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,23 +2535,26 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2472,8 +2570,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2493,37 +2591,40 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2538,16 +2639,19 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2646,14 +2753,17 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,37 +3039,40 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -2962,16 +3087,19 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3030,10 +3160,10 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -3059,14 +3189,17 @@
       <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
+      <c r="R57" s="3">
+        <v>300</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3110,7 +3243,7 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3118,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3133,7 +3269,7 @@
         <v>1000</v>
       </c>
       <c r="G59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H59" s="3">
         <v>900</v>
@@ -3142,13 +3278,13 @@
         <v>900</v>
       </c>
       <c r="J59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K59" s="3">
         <v>800</v>
       </c>
       <c r="L59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M59" s="3">
         <v>700</v>
@@ -3157,22 +3293,25 @@
         <v>700</v>
       </c>
       <c r="O59" s="3">
+        <v>700</v>
+      </c>
+      <c r="P59" s="3">
         <v>600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="R59" s="3">
+        <v>500</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3180,52 +3319,55 @@
         <v>1500</v>
       </c>
       <c r="E60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F60" s="3">
         <v>1400</v>
       </c>
       <c r="G60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1200</v>
       </c>
       <c r="K60" s="3">
         <v>1200</v>
       </c>
       <c r="L60" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M60" s="3">
         <v>1100</v>
       </c>
       <c r="N60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="O60" s="3">
         <v>1000</v>
       </c>
       <c r="P60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
+      <c r="R60" s="3">
+        <v>900</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3498,52 +3655,55 @@
         <v>1500</v>
       </c>
       <c r="E66" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F66" s="3">
         <v>1400</v>
       </c>
       <c r="G66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1200</v>
       </c>
       <c r="K66" s="3">
         <v>1200</v>
       </c>
       <c r="L66" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M66" s="3">
         <v>1100</v>
       </c>
       <c r="N66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="O66" s="3">
         <v>1000</v>
       </c>
       <c r="P66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
+      <c r="R66" s="3">
+        <v>900</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-11900</v>
       </c>
       <c r="O72" s="3">
         <v>-11900</v>
       </c>
       <c r="P72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11700</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1300</v>
       </c>
       <c r="H76" s="3">
         <v>-1300</v>
       </c>
       <c r="I76" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J76" s="3">
         <v>-1200</v>
       </c>
       <c r="K76" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="L76" s="3">
         <v>-1100</v>
       </c>
       <c r="M76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-900</v>
       </c>
       <c r="O76" s="3">
         <v>-900</v>
       </c>
       <c r="P76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="Q76" s="3">
         <v>-800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
+      <c r="R76" s="3">
+        <v>-800</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,104 +4281,110 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="G81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4199,13 +4393,16 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4564,13 +4780,13 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4582,22 +4798,25 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4820,17 +5049,20 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5083,11 +5328,11 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -5101,22 +5346,25 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5159,17 +5407,20 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5212,13 +5463,16 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/JSHG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>JSHG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,32 +949,33 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
@@ -974,26 +988,29 @@
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,41 +1065,44 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1095,8 +1115,8 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,49 +1205,50 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1230,13 +1257,16 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,40 +1274,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1286,13 +1316,16 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,49 +1521,52 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1532,13 +1575,16 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,49 +1698,52 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -1700,54 +1752,57 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="H27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1900</v>
       </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -1756,13 +1811,16 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,49 +2111,52 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="H33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1900</v>
       </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2092,13 +2165,16 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,49 +2229,52 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="H35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1900</v>
       </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2204,74 +2283,80 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2364,14 +2451,17 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2447,11 +2540,11 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2476,14 +2569,17 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,26 +2634,29 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2573,8 +2672,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2594,40 +2693,43 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2642,16 +2744,19 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2756,14 +2864,17 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,40 +3165,43 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -3090,16 +3216,19 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3163,10 +3294,10 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3192,14 +3323,17 @@
       <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
+      <c r="S57" s="3">
+        <v>300</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3246,7 +3380,7 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3254,13 +3388,16 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
         <v>1000</v>
@@ -3272,7 +3409,7 @@
         <v>1000</v>
       </c>
       <c r="H59" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I59" s="3">
         <v>900</v>
@@ -3281,13 +3418,13 @@
         <v>900</v>
       </c>
       <c r="K59" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="L59" s="3">
         <v>800</v>
       </c>
       <c r="M59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N59" s="3">
         <v>700</v>
@@ -3296,22 +3433,25 @@
         <v>700</v>
       </c>
       <c r="P59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>500</v>
       </c>
       <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="S59" s="3">
+        <v>500</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3322,52 +3462,55 @@
         <v>1500</v>
       </c>
       <c r="F60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G60" s="3">
         <v>1400</v>
       </c>
       <c r="H60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1200</v>
       </c>
       <c r="L60" s="3">
         <v>1200</v>
       </c>
       <c r="M60" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="N60" s="3">
         <v>1100</v>
       </c>
       <c r="O60" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="P60" s="3">
         <v>1000</v>
       </c>
       <c r="Q60" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
+      <c r="S60" s="3">
+        <v>900</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3801,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3658,52 +3816,55 @@
         <v>1500</v>
       </c>
       <c r="F66" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G66" s="3">
         <v>1400</v>
       </c>
       <c r="H66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1200</v>
       </c>
       <c r="L66" s="3">
         <v>1200</v>
       </c>
       <c r="M66" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="N66" s="3">
         <v>1100</v>
       </c>
       <c r="O66" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="P66" s="3">
         <v>1000</v>
       </c>
       <c r="Q66" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
+      <c r="S66" s="3">
+        <v>900</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-11900</v>
       </c>
       <c r="P72" s="3">
         <v>-11900</v>
       </c>
       <c r="Q72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="R72" s="3">
         <v>-11800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11700</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1300</v>
       </c>
       <c r="I76" s="3">
         <v>-1300</v>
       </c>
       <c r="J76" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="K76" s="3">
         <v>-1200</v>
       </c>
       <c r="L76" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="M76" s="3">
         <v>-1100</v>
       </c>
       <c r="N76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-900</v>
       </c>
       <c r="P76" s="3">
         <v>-900</v>
       </c>
       <c r="Q76" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
+      <c r="S76" s="3">
+        <v>-800</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,110 +4473,116 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="H81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1900</v>
       </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -4396,13 +4591,16 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4783,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4801,22 +5018,25 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5052,17 +5282,20 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5331,11 +5577,11 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5349,22 +5595,25 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5410,17 +5659,20 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5466,13 +5718,16 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>
